--- a/biology/Médecine/1320_en_santé_et_médecine/1320_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1320_en_santé_et_médecine/1320_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1320_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1320_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1320 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1320_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1320_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Grâce aux dons de Sanche, roi de Majorque, comte de Roussillon et de Cerdagne et seigneur de Montpellier, les antonins fondent dans cette dernière ville un hôpital destiné à recevoir ceux qui souffrent du mal des ardents[1].
-Thierry d'Hireçon et la comtesse Mahaut fondent à Gosnay en Artois, face à la chartreuse du Val-Saint-Esprit et au voisinage immédiat du château, un hôpital rural[2], pour y recevoir « les femmes en couches et les pauvres malades et infirmes de Gosnay, Hesdigneul, Fouquereuil et Fouquières[3] ».
-Construction à Paris de l'hôtel-Dieu du Patriarche par Guillaume de Chanac, évêque de Paris puis patriarche d'Alexandrie[4].
-1320-1323 : fondation à Rouen, par Gilles Gaalon, son frère Pierre et sa femme Pétronille, de l'hôpital Saint-Jean-sur-Renelle, confié d'abord aux religieux des Billettes, repris plus tard par les antonins[5],[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Grâce aux dons de Sanche, roi de Majorque, comte de Roussillon et de Cerdagne et seigneur de Montpellier, les antonins fondent dans cette dernière ville un hôpital destiné à recevoir ceux qui souffrent du mal des ardents.
+Thierry d'Hireçon et la comtesse Mahaut fondent à Gosnay en Artois, face à la chartreuse du Val-Saint-Esprit et au voisinage immédiat du château, un hôpital rural, pour y recevoir « les femmes en couches et les pauvres malades et infirmes de Gosnay, Hesdigneul, Fouquereuil et Fouquières ».
+Construction à Paris de l'hôtel-Dieu du Patriarche par Guillaume de Chanac, évêque de Paris puis patriarche d'Alexandrie.
+1320-1323 : fondation à Rouen, par Gilles Gaalon, son frère Pierre et sa femme Pétronille, de l'hôpital Saint-Jean-sur-Renelle, confié d'abord aux religieux des Billettes, repris plus tard par les antonins,.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1320_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1320_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Henri de Mondeville, chirurgien des rois de France Philippe le Bel et Louis le Hutin, achève son grand ouvrage, le premier publié sur ce thème en français, une « Chirurgie » à laquelle il travaille depuis 1306[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Henri de Mondeville, chirurgien des rois de France Philippe le Bel et Louis le Hutin, achève son grand ouvrage, le premier publié sur ce thème en français, une « Chirurgie » à laquelle il travaille depuis 1306.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1320_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1320_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,12 +590,14 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Vers 1315-1320[8] : Jean de Guistry (mort en 1379), médecin des rois de France Jean II et Charles V, de Jeanne de Savoie, duchesse de Bretagne, et d'Amaury de Craon ; bienfaiteur et restaurateur du collège de Cornouailles à Paris[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Vers 1315-1320 : Jean de Guistry (mort en 1379), médecin des rois de France Jean II et Charles V, de Jeanne de Savoie, duchesse de Bretagne, et d'Amaury de Craon ; bienfaiteur et restaurateur du collège de Cornouailles à Paris.
 Vers 1320 :
-Cristoforo Giorgio degli Onesti (mort en 1392), médecin ayant exercé à Bologne[10].
-Simon de Couvin (mort en 1367), juriste et astrologue, peut-être médecin, auteur d'un poème satirique[11], rédigé en 1349-1350, sur l'impuissance des médecins face à la grande peste, dont il a été le témoin oculaire à Paris en 1348[12].</t>
+Cristoforo Giorgio degli Onesti (mort en 1392), médecin ayant exercé à Bologne.
+Simon de Couvin (mort en 1367), juriste et astrologue, peut-être médecin, auteur d'un poème satirique, rédigé en 1349-1350, sur l'impuissance des médecins face à la grande peste, dont il a été le témoin oculaire à Paris en 1348.</t>
         </is>
       </c>
     </row>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1320_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1320_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,12 +625,14 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5 mai : Pierre d'Aspelt (né en 1245), prêtre et médecin, archevêque de Mayence, fondateur de la chartreuse de l'Archange-Saint-Michel[14].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5 mai : Pierre d'Aspelt (né en 1245), prêtre et médecin, archevêque de Mayence, fondateur de la chartreuse de l'Archange-Saint-Michel.
 Vers 1320 :
-Pietro Torregiano de Torregiani (en) (né à une date inconnue), médecin scolastique italien, élève de Thaddée de Florence à Bologne, professeur à Paris entre 1313 et 1319 et auteur du Plusquam commentum, très important commentaire de l'Ars medica (ou Tegni) de Galien[15].
-Grégoire Chioniadès (né vers 1240), astronome, physicien et médecin byzantin, évêque de Tabriz, en Iran[16].
+Pietro Torregiano de Torregiani (en) (né à une date inconnue), médecin scolastique italien, élève de Thaddée de Florence à Bologne, professeur à Paris entre 1313 et 1319 et auteur du Plusquam commentum, très important commentaire de l'Ars medica (ou Tegni) de Galien.
+Grégoire Chioniadès (né vers 1240), astronome, physicien et médecin byzantin, évêque de Tabriz, en Iran.
 </t>
         </is>
       </c>
